--- a/hi ho nn go/自己积累的/动词变形.xlsx
+++ b/hi ho nn go/自己积累的/动词变形.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git-repository\CopyFile-master\hi ho nn go\自己积累的\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA0BFF7-801E-402E-9BD3-F0D02EDFF777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58B9379-C4E0-450F-91CD-579CB9EB0976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一类动词" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
   <si>
     <t>基本形</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,369 @@
   </si>
   <si>
     <t>た</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>働く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聞く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歩く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急ぐ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊ぶ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飲む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死ぬ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>買う</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もらう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待つ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帰る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喋る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行きます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書きます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>働きます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聞きます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歩きます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行かない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書かない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>働かない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>話す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書いて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書いた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急ぎます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急がない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急いで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急いだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊びます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊ばない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊んで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊んだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読みます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読まない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読んで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読んだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死にます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死なない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死んで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死んだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗います</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗わない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待ちます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待たない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作らない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡らない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触ります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触らない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触った</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>話します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>話さない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>話して</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>話した</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挙げる</t>
+  </si>
+  <si>
+    <t>来（く）る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来（き）ます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来（こ）ない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来（き）て</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来た</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挙げます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挙げない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挙げして</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挙げした</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -53,7 +416,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +426,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -89,9 +460,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -374,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -402,6 +776,307 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -411,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2894A046-54B4-4893-B6A6-37F529D37CDE}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -439,6 +1114,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -447,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEB5837-5C1B-4679-91A2-BC12FF248E46}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -475,6 +1167,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hi ho nn go/自己积累的/动词变形.xlsx
+++ b/hi ho nn go/自己积累的/动词变形.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git-repository\CopyFile-master\hi ho nn go\自己积累的\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58B9379-C4E0-450F-91CD-579CB9EB0976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8C2F16-D6B7-4A0D-82C3-03BAED368440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一类动词" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="99">
   <si>
     <t>基本形</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,6 +409,18 @@
   </si>
   <si>
     <t>挙げした</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>運ぶ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飛ぶ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休む</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -873,207 +885,222 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1088,7 +1115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2894A046-54B4-4893-B6A6-37F529D37CDE}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/hi ho nn go/自己积累的/动词变形.xlsx
+++ b/hi ho nn go/自己积累的/动词变形.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git-repository\CopyFile-master\hi ho nn go\自己积累的\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8C2F16-D6B7-4A0D-82C3-03BAED368440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6DE065-B265-4B0D-92AB-53B7719CDA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一类动词" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="239">
   <si>
     <t>基本形</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,6 +421,566 @@
   </si>
   <si>
     <t>休む</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落とす</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落とします</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落とさない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落として</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落とした</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>働いて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>働いた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聞いた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聞いて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聞かない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歩かない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歩いて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歩いた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>運びます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飛びます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>運ばない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飛ばない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>運んで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飛んで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>運んだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飛んだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>売る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頑張る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分かる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分かります</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分からない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分かって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分かった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意向形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使役</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使役被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行こう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書こう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急ごう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊ぼう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読もう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死のう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会おう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待とう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作ろう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>話そう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挙げよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結婚する</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結婚します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結婚しない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結婚して</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結婚した</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結婚しよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こよう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行け</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書け</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>働け</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急げ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊べ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読め</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死ね</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗え</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待て</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作れ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>話せ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挙げろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来（こ）い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結婚しろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行けば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書けば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急げば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊べば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読めば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死ねば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗えば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待てば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作れば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>話せば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挙げれば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くれば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結婚すれば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行かなかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書かなかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急がなかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊ばなかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読まなかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死ななかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待たなかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挙げなかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来なかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結婚しなかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行かれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗われる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挙げられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来られる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結婚される</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行かせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗わせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挙げさせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来させる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結婚させる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行かされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗わされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挙げさせられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来させられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結婚させられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結婚できる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急がれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急がせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急がされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急げる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊ばれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊ばせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊ばされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊べる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読まれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読ませる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読まらせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死なれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死なせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死なされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死ねる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗わなかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待たれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待たせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待たらせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待てる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作らかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作られる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作らせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作らさせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作れる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>話さなかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>話される</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>話させる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>話さられる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>話せる</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,18 +1320,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="20.77734375" style="1" customWidth="1"/>
+    <col min="1" max="13" width="13.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -787,8 +1347,32 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -804,8 +1388,32 @@
       <c r="E2" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,8 +1429,20 @@
       <c r="E3" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -832,24 +1452,51 @@
       <c r="C4" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -865,8 +1512,32 @@
       <c r="E7" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -882,18 +1553,66 @@
       <c r="E8" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -909,18 +1628,42 @@
       <c r="E11" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -936,8 +1679,32 @@
       <c r="E14" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -953,23 +1720,47 @@
       <c r="E15" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -985,8 +1776,32 @@
       <c r="E19" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1002,13 +1817,37 @@
       <c r="E20" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1025,7 +1864,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1042,66 +1881,134 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>85</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1113,18 +2020,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2894A046-54B4-4893-B6A6-37F529D37CDE}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="20.77734375" style="1" customWidth="1"/>
+    <col min="1" max="13" width="13.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1140,8 +2047,32 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
@@ -1156,6 +2087,30 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>95</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1166,18 +2121,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEB5837-5C1B-4679-91A2-BC12FF248E46}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="20.77734375" style="1" customWidth="1"/>
+    <col min="1" max="13" width="13.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1193,8 +2148,32 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
@@ -1209,6 +2188,71 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>91</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/hi ho nn go/自己积累的/动词变形.xlsx
+++ b/hi ho nn go/自己积累的/动词变形.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git-repository\CopyFile-master\hi ho nn go\自己积累的\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6DE065-B265-4B0D-92AB-53B7719CDA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F309AD3-4260-43A6-AA78-1042AC02CAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一类动词" sheetId="1" r:id="rId1"/>
@@ -936,10 +936,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待たらせる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>待てる</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -981,6 +977,10 @@
   </si>
   <si>
     <t>話せる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待たされる</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1322,8 +1322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1795,10 +1795,10 @@
         <v>226</v>
       </c>
       <c r="L19" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1827,19 +1827,19 @@
         <v>175</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1979,19 +1979,19 @@
         <v>176</v>
       </c>
       <c r="I36" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2123,7 +2123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEB5837-5C1B-4679-91A2-BC12FF248E46}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>

--- a/hi ho nn go/自己积累的/动词变形.xlsx
+++ b/hi ho nn go/自己积累的/动词变形.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git-repository\CopyFile-master\hi ho nn go\自己积累的\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-reprository\copyfile\hi ho nn go\自己积累的\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F309AD3-4260-43A6-AA78-1042AC02CAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57F4F7C-BAE5-4296-B3CD-77A4F5A96F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一类动词" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="243">
   <si>
     <t>基本形</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -981,6 +981,22 @@
   </si>
   <si>
     <t>待たされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書かれる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書かせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書かされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書ける</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1322,16 +1338,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="13" width="13.77734375" style="1" customWidth="1"/>
+    <col min="1" max="13" width="13.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1372,7 +1388,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1413,7 +1429,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1441,8 +1457,20 @@
       <c r="I3" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1462,7 +1490,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1479,7 +1507,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1496,7 +1524,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1537,7 +1565,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1578,7 +1606,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>96</v>
       </c>
@@ -1595,7 +1623,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>97</v>
       </c>
@@ -1612,7 +1640,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1653,17 +1681,17 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1704,7 +1732,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1745,22 +1773,22 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1801,7 +1829,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -1842,12 +1870,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1864,7 +1892,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1881,62 +1909,62 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>122</v>
       </c>
@@ -1953,7 +1981,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -1994,7 +2022,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>99</v>
       </c>
@@ -2026,12 +2054,12 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="13" width="13.77734375" style="1" customWidth="1"/>
+    <col min="1" max="13" width="13.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2072,7 +2100,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
@@ -2127,12 +2155,12 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="13" width="13.77734375" style="1" customWidth="1"/>
+    <col min="1" max="13" width="13.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2173,7 +2201,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
@@ -2214,7 +2242,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>146</v>
       </c>

--- a/hi ho nn go/自己积累的/动词变形.xlsx
+++ b/hi ho nn go/自己积累的/动词变形.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-reprository\copyfile\hi ho nn go\自己积累的\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57F4F7C-BAE5-4296-B3CD-77A4F5A96F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9B2B57-D5E1-48DE-8B48-E571E7DF105D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="248">
   <si>
     <t>基本形</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -997,6 +997,26 @@
   </si>
   <si>
     <t>書ける</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>働こう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>働けば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>働かなかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>働かせる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>働ける</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1339,7 +1359,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1486,8 +1506,23 @@
       <c r="E4" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>155</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
